--- a/Code/Results/Cases/Case_0_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.014023259379212</v>
+        <v>1.05290172043414</v>
       </c>
       <c r="D2">
-        <v>1.026900399643386</v>
+        <v>1.059754761767796</v>
       </c>
       <c r="E2">
-        <v>1.02670132204433</v>
+        <v>1.059493850083259</v>
       </c>
       <c r="F2">
-        <v>1.03370413232862</v>
+        <v>1.069844243357623</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047361118634504</v>
+        <v>1.037582526245922</v>
       </c>
       <c r="J2">
-        <v>1.035792476997176</v>
+        <v>1.057921883996734</v>
       </c>
       <c r="K2">
-        <v>1.037997270606935</v>
+        <v>1.062483402556942</v>
       </c>
       <c r="L2">
-        <v>1.0378007880417</v>
+        <v>1.062223202176085</v>
       </c>
       <c r="M2">
-        <v>1.044713065823156</v>
+        <v>1.072545665796736</v>
       </c>
       <c r="N2">
-        <v>1.015288525607319</v>
+        <v>1.023040611526442</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019607045947083</v>
+        <v>1.05407430179326</v>
       </c>
       <c r="D3">
-        <v>1.031720142141578</v>
+        <v>1.060817489896362</v>
       </c>
       <c r="E3">
-        <v>1.031460214886912</v>
+        <v>1.060545943288722</v>
       </c>
       <c r="F3">
-        <v>1.038895057091171</v>
+        <v>1.071001740108345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048523564138019</v>
+        <v>1.037749402478622</v>
       </c>
       <c r="J3">
-        <v>1.039577108571164</v>
+        <v>1.058744050205429</v>
       </c>
       <c r="K3">
-        <v>1.041962628200215</v>
+        <v>1.063359794103909</v>
       </c>
       <c r="L3">
-        <v>1.041705779062398</v>
+        <v>1.063088934069524</v>
       </c>
       <c r="M3">
-        <v>1.049053328160679</v>
+        <v>1.073518565291156</v>
       </c>
       <c r="N3">
-        <v>1.016591270048299</v>
+        <v>1.023319477699128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023136232977491</v>
+        <v>1.054832996574571</v>
       </c>
       <c r="D4">
-        <v>1.034772057129578</v>
+        <v>1.06150541694946</v>
       </c>
       <c r="E4">
-        <v>1.034474223050353</v>
+        <v>1.061227041852626</v>
       </c>
       <c r="F4">
-        <v>1.042183378491304</v>
+        <v>1.07175122402274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049245745764776</v>
+        <v>1.037855794540809</v>
       </c>
       <c r="J4">
-        <v>1.041966072591898</v>
+        <v>1.059275452575647</v>
       </c>
       <c r="K4">
-        <v>1.044468173502663</v>
+        <v>1.063926547301242</v>
       </c>
       <c r="L4">
-        <v>1.044173644027228</v>
+        <v>1.063648840480272</v>
       </c>
       <c r="M4">
-        <v>1.051798009645151</v>
+        <v>1.074148017199642</v>
       </c>
       <c r="N4">
-        <v>1.017413003924874</v>
+        <v>1.02349958467486</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02460066480975</v>
+        <v>1.055151942440731</v>
       </c>
       <c r="D5">
-        <v>1.03603974463094</v>
+        <v>1.061794686698413</v>
       </c>
       <c r="E5">
-        <v>1.035726312323667</v>
+        <v>1.061513453559917</v>
       </c>
       <c r="F5">
-        <v>1.043549599725676</v>
+        <v>1.072066428701721</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049542357044785</v>
+        <v>1.037900141502708</v>
       </c>
       <c r="J5">
-        <v>1.042956583547901</v>
+        <v>1.059498712263156</v>
       </c>
       <c r="K5">
-        <v>1.045507623574903</v>
+        <v>1.064164731528003</v>
       </c>
       <c r="L5">
-        <v>1.045197572337718</v>
+        <v>1.063884158440137</v>
       </c>
       <c r="M5">
-        <v>1.052937211272777</v>
+        <v>1.074412620244199</v>
       </c>
       <c r="N5">
-        <v>1.017753560299171</v>
+        <v>1.023575220743116</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024845444874831</v>
+        <v>1.055205494333502</v>
       </c>
       <c r="D6">
-        <v>1.036251713728652</v>
+        <v>1.061843260196981</v>
       </c>
       <c r="E6">
-        <v>1.035935681845748</v>
+        <v>1.061561547921738</v>
       </c>
       <c r="F6">
-        <v>1.043778064587711</v>
+        <v>1.072119360101252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049591754506306</v>
+        <v>1.037907565251543</v>
       </c>
       <c r="J6">
-        <v>1.04312210004943</v>
+        <v>1.059536190238577</v>
       </c>
       <c r="K6">
-        <v>1.045681353380878</v>
+        <v>1.064204719096356</v>
       </c>
       <c r="L6">
-        <v>1.045368714359245</v>
+        <v>1.063923665459913</v>
       </c>
       <c r="M6">
-        <v>1.053127645254846</v>
+        <v>1.074457047184372</v>
       </c>
       <c r="N6">
-        <v>1.017810458924501</v>
+        <v>1.023587915628495</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023155875298198</v>
+        <v>1.054837258380533</v>
       </c>
       <c r="D7">
-        <v>1.034789055465655</v>
+        <v>1.061509281929298</v>
       </c>
       <c r="E7">
-        <v>1.034491011651901</v>
+        <v>1.061230868593491</v>
       </c>
       <c r="F7">
-        <v>1.042201696719536</v>
+        <v>1.071755435324526</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04924973633976</v>
+        <v>1.03785638860136</v>
       </c>
       <c r="J7">
-        <v>1.041979361416189</v>
+        <v>1.059278436339509</v>
       </c>
       <c r="K7">
-        <v>1.044482116516504</v>
+        <v>1.063929730239789</v>
       </c>
       <c r="L7">
-        <v>1.044187378399603</v>
+        <v>1.063651985072014</v>
       </c>
       <c r="M7">
-        <v>1.051813288556204</v>
+        <v>1.074151552910813</v>
       </c>
       <c r="N7">
-        <v>1.017417573478902</v>
+        <v>1.023500595645564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015928223746665</v>
+        <v>1.053298009493053</v>
       </c>
       <c r="D8">
-        <v>1.02854348519229</v>
+        <v>1.060113859844302</v>
       </c>
       <c r="E8">
-        <v>1.028323531073758</v>
+        <v>1.059849343037764</v>
       </c>
       <c r="F8">
-        <v>1.035473474137395</v>
+        <v>1.070235320295859</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047760300682364</v>
+        <v>1.037639251608605</v>
       </c>
       <c r="J8">
-        <v>1.037084259634658</v>
+        <v>1.058199862161057</v>
       </c>
       <c r="K8">
-        <v>1.039350214152146</v>
+        <v>1.062779651882739</v>
       </c>
       <c r="L8">
-        <v>1.039133037322741</v>
+        <v>1.062515838507231</v>
       </c>
       <c r="M8">
-        <v>1.046193453022951</v>
+        <v>1.072874478361892</v>
       </c>
       <c r="N8">
-        <v>1.015733302676651</v>
+        <v>1.023134925678807</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002508763752591</v>
+        <v>1.050585273396878</v>
       </c>
       <c r="D9">
-        <v>1.016995234910326</v>
+        <v>1.057657005695527</v>
       </c>
       <c r="E9">
-        <v>1.016924770566042</v>
+        <v>1.057417384061224</v>
       </c>
       <c r="F9">
-        <v>1.023043333951755</v>
+        <v>1.067560537812254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044896900891955</v>
+        <v>1.037244469693185</v>
       </c>
       <c r="J9">
-        <v>1.027973241087298</v>
+        <v>1.056294709159581</v>
       </c>
       <c r="K9">
-        <v>1.029818465394397</v>
+        <v>1.060750517148905</v>
       </c>
       <c r="L9">
-        <v>1.029749096071215</v>
+        <v>1.060511642775723</v>
       </c>
       <c r="M9">
-        <v>1.035773293633611</v>
+        <v>1.070623485284153</v>
       </c>
       <c r="N9">
-        <v>1.012594053457087</v>
+        <v>1.022487977385821</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9930410123759371</v>
+        <v>1.048776455858164</v>
       </c>
       <c r="D10">
-        <v>1.008884176028636</v>
+        <v>1.056020459922997</v>
       </c>
       <c r="E10">
-        <v>1.008922355437704</v>
+        <v>1.055797711535535</v>
       </c>
       <c r="F10">
-        <v>1.014319466352988</v>
+        <v>1.065779907369253</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042813642584923</v>
+        <v>1.03697311045669</v>
       </c>
       <c r="J10">
-        <v>1.021533478415797</v>
+        <v>1.055021509764531</v>
       </c>
       <c r="K10">
-        <v>1.023094855496715</v>
+        <v>1.059396020361056</v>
       </c>
       <c r="L10">
-        <v>1.023132361250099</v>
+        <v>1.059174035143658</v>
       </c>
       <c r="M10">
-        <v>1.028434903588309</v>
+        <v>1.06912237449905</v>
       </c>
       <c r="N10">
-        <v>1.010372756924347</v>
+        <v>1.022054932872313</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9888022889892294</v>
+        <v>1.047993124093168</v>
       </c>
       <c r="D11">
-        <v>1.005262509982804</v>
+        <v>1.055312132530879</v>
       </c>
       <c r="E11">
-        <v>1.005350113061055</v>
+        <v>1.055096756546671</v>
       </c>
       <c r="F11">
-        <v>1.010425610009237</v>
+        <v>1.065009472980102</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041866805351967</v>
+        <v>1.036853671147499</v>
       </c>
       <c r="J11">
-        <v>1.018648441240858</v>
+        <v>1.054469458994204</v>
       </c>
       <c r="K11">
-        <v>1.020085860805567</v>
+        <v>1.058809088891074</v>
       </c>
       <c r="L11">
-        <v>1.020171834490289</v>
+        <v>1.058594479591104</v>
       </c>
       <c r="M11">
-        <v>1.025153556878172</v>
+        <v>1.068472263221354</v>
       </c>
       <c r="N11">
-        <v>1.009377153688232</v>
+        <v>1.021867004640028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9872054859311804</v>
+        <v>1.047702142988619</v>
       </c>
       <c r="D12">
-        <v>1.003899707743328</v>
+        <v>1.055049073732651</v>
       </c>
       <c r="E12">
-        <v>1.004006050167257</v>
+        <v>1.054836446176439</v>
       </c>
       <c r="F12">
-        <v>1.008960588599101</v>
+        <v>1.064723387200996</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041508059951227</v>
+        <v>1.036809014726765</v>
       </c>
       <c r="J12">
-        <v>1.017561379666323</v>
+        <v>1.05426428984406</v>
       </c>
       <c r="K12">
-        <v>1.018952574941933</v>
+        <v>1.058591011821798</v>
       </c>
       <c r="L12">
-        <v>1.019056900933507</v>
+        <v>1.058379151729898</v>
       </c>
       <c r="M12">
-        <v>1.023918108080236</v>
+        <v>1.06823076412355</v>
       </c>
       <c r="N12">
-        <v>1.009001960303943</v>
+        <v>1.021797136922967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.987549041837268</v>
+        <v>1.047764560208206</v>
       </c>
       <c r="D13">
-        <v>1.004192846527442</v>
+        <v>1.05510549868861</v>
       </c>
       <c r="E13">
-        <v>1.004295151644558</v>
+        <v>1.054892281132478</v>
       </c>
       <c r="F13">
-        <v>1.009275705722548</v>
+        <v>1.064784749609501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041585336460455</v>
+        <v>1.036818606865072</v>
       </c>
       <c r="J13">
-        <v>1.017795271994678</v>
+        <v>1.054308304443782</v>
       </c>
       <c r="K13">
-        <v>1.019196391117831</v>
+        <v>1.058637793027022</v>
       </c>
       <c r="L13">
-        <v>1.019296764333948</v>
+        <v>1.058425342791935</v>
       </c>
       <c r="M13">
-        <v>1.024183885056327</v>
+        <v>1.068282567363408</v>
       </c>
       <c r="N13">
-        <v>1.009082689364622</v>
+        <v>1.02181212662972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9886707615876082</v>
+        <v>1.047969071855931</v>
       </c>
       <c r="D14">
-        <v>1.005150225124532</v>
+        <v>1.055290387083738</v>
       </c>
       <c r="E14">
-        <v>1.005239369282216</v>
+        <v>1.055075238081398</v>
       </c>
       <c r="F14">
-        <v>1.010304898976134</v>
+        <v>1.064985823252949</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041837297078697</v>
+        <v>1.036849985777351</v>
       </c>
       <c r="J14">
-        <v>1.018558904777836</v>
+        <v>1.054452501955608</v>
       </c>
       <c r="K14">
-        <v>1.019992507260221</v>
+        <v>1.058791063893979</v>
       </c>
       <c r="L14">
-        <v>1.020079990706792</v>
+        <v>1.058576681651179</v>
       </c>
       <c r="M14">
-        <v>1.025051779357658</v>
+        <v>1.068452301218831</v>
       </c>
       <c r="N14">
-        <v>1.00934625176011</v>
+        <v>1.021861230634737</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9893588826204219</v>
+        <v>1.04809507595928</v>
       </c>
       <c r="D15">
-        <v>1.005737737056918</v>
+        <v>1.055404308938742</v>
       </c>
       <c r="E15">
-        <v>1.00581882356913</v>
+        <v>1.055187971233714</v>
       </c>
       <c r="F15">
-        <v>1.010936507701227</v>
+        <v>1.065109722977766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041991594326621</v>
+        <v>1.036869280753967</v>
       </c>
       <c r="J15">
-        <v>1.019027330559673</v>
+        <v>1.054541331819157</v>
       </c>
       <c r="K15">
-        <v>1.020480922409874</v>
+        <v>1.058885490554951</v>
       </c>
       <c r="L15">
-        <v>1.020560510943579</v>
+        <v>1.058669919193355</v>
       </c>
       <c r="M15">
-        <v>1.025584284616769</v>
+        <v>1.068556877332852</v>
       </c>
       <c r="N15">
-        <v>1.00950791838254</v>
+        <v>1.021891476906519</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9933192704160618</v>
+        <v>1.048828440733187</v>
       </c>
       <c r="D16">
-        <v>1.00912213484146</v>
+        <v>1.056067475703037</v>
       </c>
       <c r="E16">
-        <v>1.00915708627596</v>
+        <v>1.055844239431714</v>
       </c>
       <c r="F16">
-        <v>1.014575338097179</v>
+        <v>1.065831050928857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042875510955178</v>
+        <v>1.036980996395453</v>
       </c>
       <c r="J16">
-        <v>1.021722837294784</v>
+        <v>1.055058131758858</v>
       </c>
       <c r="K16">
-        <v>1.023292416966521</v>
+        <v>1.059434964049122</v>
       </c>
       <c r="L16">
-        <v>1.02332675388312</v>
+        <v>1.059212490641982</v>
       </c>
       <c r="M16">
-        <v>1.028650404324702</v>
+        <v>1.069165517644122</v>
       </c>
       <c r="N16">
-        <v>1.010438094641682</v>
+        <v>1.022067396250465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.995765285472283</v>
+        <v>1.049288432751671</v>
       </c>
       <c r="D17">
-        <v>1.011215008699475</v>
+        <v>1.056483544588573</v>
       </c>
       <c r="E17">
-        <v>1.011221674034731</v>
+        <v>1.056255998779228</v>
       </c>
       <c r="F17">
-        <v>1.016825919847354</v>
+        <v>1.066283678358002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0434177634319</v>
+        <v>1.037050553524411</v>
       </c>
       <c r="J17">
-        <v>1.023387175837237</v>
+        <v>1.055382106226251</v>
       </c>
       <c r="K17">
-        <v>1.025029214684294</v>
+        <v>1.059779519883125</v>
       </c>
       <c r="L17">
-        <v>1.025035766476862</v>
+        <v>1.059552733839169</v>
       </c>
       <c r="M17">
-        <v>1.030545224268082</v>
+        <v>1.069547268879121</v>
       </c>
       <c r="N17">
-        <v>1.011012319461977</v>
+        <v>1.022177634039672</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9971786857936316</v>
+        <v>1.049556728589396</v>
       </c>
       <c r="D18">
-        <v>1.012425258275333</v>
+        <v>1.05672626026841</v>
       </c>
       <c r="E18">
-        <v>1.012415652754568</v>
+        <v>1.056496207160327</v>
       </c>
       <c r="F18">
-        <v>1.018127504136053</v>
+        <v>1.066547745295311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043729753362648</v>
+        <v>1.037090937940926</v>
       </c>
       <c r="J18">
-        <v>1.024348704336182</v>
+        <v>1.055571003020064</v>
       </c>
       <c r="K18">
-        <v>1.0260329077619</v>
+        <v>1.059980452469854</v>
       </c>
       <c r="L18">
-        <v>1.026023462843682</v>
+        <v>1.059751156995318</v>
       </c>
       <c r="M18">
-        <v>1.031640501261945</v>
+        <v>1.069769926348097</v>
       </c>
       <c r="N18">
-        <v>1.011344019285177</v>
+        <v>1.02224189364235</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9976584016190428</v>
+        <v>1.049648208933189</v>
       </c>
       <c r="D19">
-        <v>1.012836174949823</v>
+        <v>1.056809025108241</v>
       </c>
       <c r="E19">
-        <v>1.012821059470979</v>
+        <v>1.056578118157131</v>
       </c>
       <c r="F19">
-        <v>1.01856945526483</v>
+        <v>1.066637794993078</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043835414364127</v>
+        <v>1.037104676252372</v>
       </c>
       <c r="J19">
-        <v>1.024675018061501</v>
+        <v>1.055635399748071</v>
       </c>
       <c r="K19">
-        <v>1.02637358229679</v>
+        <v>1.060048958355195</v>
       </c>
       <c r="L19">
-        <v>1.026358717933105</v>
+        <v>1.059818808256266</v>
       </c>
       <c r="M19">
-        <v>1.032012306039958</v>
+        <v>1.069845844851251</v>
       </c>
       <c r="N19">
-        <v>1.011456580449863</v>
+        <v>1.022263797685967</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.995504238908676</v>
+        <v>1.049239080977897</v>
       </c>
       <c r="D20">
-        <v>1.010991555641196</v>
+        <v>1.056438901263697</v>
       </c>
       <c r="E20">
-        <v>1.011001232066183</v>
+        <v>1.056211817166554</v>
       </c>
       <c r="F20">
-        <v>1.016585614443726</v>
+        <v>1.066235109826916</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04336003154032</v>
+        <v>1.037043110053517</v>
       </c>
       <c r="J20">
-        <v>1.023209571438969</v>
+        <v>1.055347354287307</v>
       </c>
       <c r="K20">
-        <v>1.024843846570022</v>
+        <v>1.059742556548689</v>
       </c>
       <c r="L20">
-        <v>1.024853357595099</v>
+        <v>1.059516232583088</v>
       </c>
       <c r="M20">
-        <v>1.030342963186436</v>
+        <v>1.069506311786089</v>
       </c>
       <c r="N20">
-        <v>1.010951047413498</v>
+        <v>1.022165810730786</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9883410724262088</v>
+        <v>1.047908848749139</v>
       </c>
       <c r="D21">
-        <v>1.004868794886128</v>
+        <v>1.055235940808273</v>
       </c>
       <c r="E21">
-        <v>1.004961803894639</v>
+        <v>1.055021360292574</v>
       </c>
       <c r="F21">
-        <v>1.010002352652289</v>
+        <v>1.064926609658031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041763298236029</v>
+        <v>1.036840753512569</v>
       </c>
       <c r="J21">
-        <v>1.01833446771106</v>
+        <v>1.054410042504862</v>
       </c>
       <c r="K21">
-        <v>1.019758509844229</v>
+        <v>1.058745931232203</v>
       </c>
       <c r="L21">
-        <v>1.019849779197403</v>
+        <v>1.058532117656039</v>
       </c>
       <c r="M21">
-        <v>1.024796673287231</v>
+        <v>1.068402319354427</v>
       </c>
       <c r="N21">
-        <v>1.009268790391127</v>
+        <v>1.021846772463971</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9837071636083548</v>
+        <v>1.047072380949392</v>
       </c>
       <c r="D22">
-        <v>1.000916991927381</v>
+        <v>1.05447985491944</v>
       </c>
       <c r="E22">
-        <v>1.001064614304236</v>
+        <v>1.054273193719156</v>
       </c>
       <c r="F22">
-        <v>1.005754510581239</v>
+        <v>1.064104411563677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0407184112396</v>
+        <v>1.03671183828349</v>
       </c>
       <c r="J22">
-        <v>1.015179504320616</v>
+        <v>1.053820063761327</v>
       </c>
       <c r="K22">
-        <v>1.016470304890001</v>
+        <v>1.058118939317592</v>
       </c>
       <c r="L22">
-        <v>1.016615010438329</v>
+        <v>1.057913046289361</v>
       </c>
       <c r="M22">
-        <v>1.021212824998075</v>
+        <v>1.067708086226026</v>
       </c>
       <c r="N22">
-        <v>1.008179776513836</v>
+        <v>1.02164581700794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9861765418796972</v>
+        <v>1.047515818150396</v>
       </c>
       <c r="D23">
-        <v>1.003021995909061</v>
+        <v>1.054880645650562</v>
       </c>
       <c r="E23">
-        <v>1.003140447896504</v>
+        <v>1.054669780775225</v>
       </c>
       <c r="F23">
-        <v>1.008017098454079</v>
+        <v>1.064540226467072</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041276322784257</v>
+        <v>1.036780338476785</v>
       </c>
       <c r="J23">
-        <v>1.016860850598481</v>
+        <v>1.054132884840133</v>
       </c>
       <c r="K23">
-        <v>1.018222393718959</v>
+        <v>1.058451355273064</v>
       </c>
       <c r="L23">
-        <v>1.018338571956127</v>
+        <v>1.0582412582114</v>
       </c>
       <c r="M23">
-        <v>1.02312221895978</v>
+        <v>1.068076122945945</v>
       </c>
       <c r="N23">
-        <v>1.008760161838683</v>
+        <v>1.021752381793797</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956222356664651</v>
+        <v>1.049261380949738</v>
       </c>
       <c r="D24">
-        <v>1.011092556791091</v>
+        <v>1.056459073568389</v>
       </c>
       <c r="E24">
-        <v>1.01110087193157</v>
+        <v>1.056231780823669</v>
       </c>
       <c r="F24">
-        <v>1.016694232456532</v>
+        <v>1.066257055679021</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04338613135163</v>
+        <v>1.03704647401559</v>
       </c>
       <c r="J24">
-        <v>1.023289851745348</v>
+        <v>1.055363057414932</v>
       </c>
       <c r="K24">
-        <v>1.024927635271704</v>
+        <v>1.059759258814872</v>
       </c>
       <c r="L24">
-        <v>1.024935808499881</v>
+        <v>1.059532726037244</v>
       </c>
       <c r="M24">
-        <v>1.03043438690379</v>
+        <v>1.069524818568907</v>
       </c>
       <c r="N24">
-        <v>1.010978743591641</v>
+        <v>1.022171153299385</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006065075239412</v>
+        <v>1.051286633217119</v>
       </c>
       <c r="D25">
-        <v>1.020049697019316</v>
+        <v>1.058291920245181</v>
       </c>
       <c r="E25">
-        <v>1.019939080523419</v>
+        <v>1.058045814054761</v>
       </c>
       <c r="F25">
-        <v>1.02632987643695</v>
+        <v>1.068251579883076</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045666808470378</v>
+        <v>1.037347970785646</v>
       </c>
       <c r="J25">
-        <v>1.030390035308134</v>
+        <v>1.056787780864965</v>
       </c>
       <c r="K25">
-        <v>1.032344540637289</v>
+        <v>1.061275401940451</v>
       </c>
       <c r="L25">
-        <v>1.032235556847928</v>
+        <v>1.061030033952938</v>
       </c>
       <c r="M25">
-        <v>1.0385327561896</v>
+        <v>1.071205497922539</v>
       </c>
       <c r="N25">
-        <v>1.013427230940369</v>
+        <v>1.022655536444017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.05290172043414</v>
+        <v>1.014023259379212</v>
       </c>
       <c r="D2">
-        <v>1.059754761767796</v>
+        <v>1.026900399643386</v>
       </c>
       <c r="E2">
-        <v>1.059493850083259</v>
+        <v>1.02670132204433</v>
       </c>
       <c r="F2">
-        <v>1.069844243357623</v>
+        <v>1.03370413232862</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037582526245922</v>
+        <v>1.047361118634504</v>
       </c>
       <c r="J2">
-        <v>1.057921883996734</v>
+        <v>1.035792476997176</v>
       </c>
       <c r="K2">
-        <v>1.062483402556942</v>
+        <v>1.037997270606935</v>
       </c>
       <c r="L2">
-        <v>1.062223202176085</v>
+        <v>1.0378007880417</v>
       </c>
       <c r="M2">
-        <v>1.072545665796736</v>
+        <v>1.044713065823156</v>
       </c>
       <c r="N2">
-        <v>1.023040611526442</v>
+        <v>1.015288525607319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05407430179326</v>
+        <v>1.019607045947082</v>
       </c>
       <c r="D3">
-        <v>1.060817489896362</v>
+        <v>1.031720142141577</v>
       </c>
       <c r="E3">
-        <v>1.060545943288722</v>
+        <v>1.031460214886911</v>
       </c>
       <c r="F3">
-        <v>1.071001740108345</v>
+        <v>1.03889505709117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037749402478622</v>
+        <v>1.048523564138019</v>
       </c>
       <c r="J3">
-        <v>1.058744050205429</v>
+        <v>1.039577108571163</v>
       </c>
       <c r="K3">
-        <v>1.063359794103909</v>
+        <v>1.041962628200215</v>
       </c>
       <c r="L3">
-        <v>1.063088934069524</v>
+        <v>1.041705779062397</v>
       </c>
       <c r="M3">
-        <v>1.073518565291156</v>
+        <v>1.049053328160678</v>
       </c>
       <c r="N3">
-        <v>1.023319477699128</v>
+        <v>1.016591270048299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.054832996574571</v>
+        <v>1.02313623297749</v>
       </c>
       <c r="D4">
-        <v>1.06150541694946</v>
+        <v>1.034772057129577</v>
       </c>
       <c r="E4">
-        <v>1.061227041852626</v>
+        <v>1.034474223050351</v>
       </c>
       <c r="F4">
-        <v>1.07175122402274</v>
+        <v>1.042183378491303</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037855794540809</v>
+        <v>1.049245745764776</v>
       </c>
       <c r="J4">
-        <v>1.059275452575647</v>
+        <v>1.041966072591897</v>
       </c>
       <c r="K4">
-        <v>1.063926547301242</v>
+        <v>1.044468173502662</v>
       </c>
       <c r="L4">
-        <v>1.063648840480272</v>
+        <v>1.044173644027227</v>
       </c>
       <c r="M4">
-        <v>1.074148017199642</v>
+        <v>1.05179800964515</v>
       </c>
       <c r="N4">
-        <v>1.02349958467486</v>
+        <v>1.017413003924874</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055151942440731</v>
+        <v>1.02460066480975</v>
       </c>
       <c r="D5">
-        <v>1.061794686698413</v>
+        <v>1.03603974463094</v>
       </c>
       <c r="E5">
-        <v>1.061513453559917</v>
+        <v>1.035726312323667</v>
       </c>
       <c r="F5">
-        <v>1.072066428701721</v>
+        <v>1.043549599725676</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037900141502708</v>
+        <v>1.049542357044785</v>
       </c>
       <c r="J5">
-        <v>1.059498712263156</v>
+        <v>1.042956583547901</v>
       </c>
       <c r="K5">
-        <v>1.064164731528003</v>
+        <v>1.045507623574902</v>
       </c>
       <c r="L5">
-        <v>1.063884158440137</v>
+        <v>1.045197572337718</v>
       </c>
       <c r="M5">
-        <v>1.074412620244199</v>
+        <v>1.052937211272777</v>
       </c>
       <c r="N5">
-        <v>1.023575220743116</v>
+        <v>1.017753560299171</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055205494333502</v>
+        <v>1.024845444874831</v>
       </c>
       <c r="D6">
-        <v>1.061843260196981</v>
+        <v>1.036251713728652</v>
       </c>
       <c r="E6">
-        <v>1.061561547921738</v>
+        <v>1.035935681845749</v>
       </c>
       <c r="F6">
-        <v>1.072119360101252</v>
+        <v>1.043778064587711</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037907565251543</v>
+        <v>1.049591754506306</v>
       </c>
       <c r="J6">
-        <v>1.059536190238577</v>
+        <v>1.04312210004943</v>
       </c>
       <c r="K6">
-        <v>1.064204719096356</v>
+        <v>1.045681353380878</v>
       </c>
       <c r="L6">
-        <v>1.063923665459913</v>
+        <v>1.045368714359245</v>
       </c>
       <c r="M6">
-        <v>1.074457047184372</v>
+        <v>1.053127645254846</v>
       </c>
       <c r="N6">
-        <v>1.023587915628495</v>
+        <v>1.017810458924501</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.054837258380533</v>
+        <v>1.023155875298198</v>
       </c>
       <c r="D7">
-        <v>1.061509281929298</v>
+        <v>1.034789055465656</v>
       </c>
       <c r="E7">
-        <v>1.061230868593491</v>
+        <v>1.034491011651901</v>
       </c>
       <c r="F7">
-        <v>1.071755435324526</v>
+        <v>1.042201696719536</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03785638860136</v>
+        <v>1.04924973633976</v>
       </c>
       <c r="J7">
-        <v>1.059278436339509</v>
+        <v>1.041979361416189</v>
       </c>
       <c r="K7">
-        <v>1.063929730239789</v>
+        <v>1.044482116516504</v>
       </c>
       <c r="L7">
-        <v>1.063651985072014</v>
+        <v>1.044187378399603</v>
       </c>
       <c r="M7">
-        <v>1.074151552910813</v>
+        <v>1.051813288556204</v>
       </c>
       <c r="N7">
-        <v>1.023500595645564</v>
+        <v>1.017417573478902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053298009493053</v>
+        <v>1.015928223746665</v>
       </c>
       <c r="D8">
-        <v>1.060113859844302</v>
+        <v>1.02854348519229</v>
       </c>
       <c r="E8">
-        <v>1.059849343037764</v>
+        <v>1.028323531073758</v>
       </c>
       <c r="F8">
-        <v>1.070235320295859</v>
+        <v>1.035473474137395</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037639251608605</v>
+        <v>1.047760300682364</v>
       </c>
       <c r="J8">
-        <v>1.058199862161057</v>
+        <v>1.037084259634658</v>
       </c>
       <c r="K8">
-        <v>1.062779651882739</v>
+        <v>1.039350214152146</v>
       </c>
       <c r="L8">
-        <v>1.062515838507231</v>
+        <v>1.039133037322741</v>
       </c>
       <c r="M8">
-        <v>1.072874478361892</v>
+        <v>1.046193453022951</v>
       </c>
       <c r="N8">
-        <v>1.023134925678807</v>
+        <v>1.015733302676651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050585273396878</v>
+        <v>1.002508763752592</v>
       </c>
       <c r="D9">
-        <v>1.057657005695527</v>
+        <v>1.016995234910327</v>
       </c>
       <c r="E9">
-        <v>1.057417384061224</v>
+        <v>1.016924770566043</v>
       </c>
       <c r="F9">
-        <v>1.067560537812254</v>
+        <v>1.023043333951755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037244469693185</v>
+        <v>1.044896900891955</v>
       </c>
       <c r="J9">
-        <v>1.056294709159581</v>
+        <v>1.027973241087298</v>
       </c>
       <c r="K9">
-        <v>1.060750517148905</v>
+        <v>1.029818465394398</v>
       </c>
       <c r="L9">
-        <v>1.060511642775723</v>
+        <v>1.029749096071216</v>
       </c>
       <c r="M9">
-        <v>1.070623485284153</v>
+        <v>1.035773293633612</v>
       </c>
       <c r="N9">
-        <v>1.022487977385821</v>
+        <v>1.012594053457088</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048776455858164</v>
+        <v>0.9930410123759376</v>
       </c>
       <c r="D10">
-        <v>1.056020459922997</v>
+        <v>1.008884176028637</v>
       </c>
       <c r="E10">
-        <v>1.055797711535535</v>
+        <v>1.008922355437704</v>
       </c>
       <c r="F10">
-        <v>1.065779907369253</v>
+        <v>1.014319466352989</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03697311045669</v>
+        <v>1.042813642584923</v>
       </c>
       <c r="J10">
-        <v>1.055021509764531</v>
+        <v>1.021533478415798</v>
       </c>
       <c r="K10">
-        <v>1.059396020361056</v>
+        <v>1.023094855496716</v>
       </c>
       <c r="L10">
-        <v>1.059174035143658</v>
+        <v>1.0231323612501</v>
       </c>
       <c r="M10">
-        <v>1.06912237449905</v>
+        <v>1.028434903588309</v>
       </c>
       <c r="N10">
-        <v>1.022054932872313</v>
+        <v>1.010372756924348</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047993124093168</v>
+        <v>0.9888022889892293</v>
       </c>
       <c r="D11">
-        <v>1.055312132530879</v>
+        <v>1.005262509982804</v>
       </c>
       <c r="E11">
-        <v>1.055096756546671</v>
+        <v>1.005350113061055</v>
       </c>
       <c r="F11">
-        <v>1.065009472980102</v>
+        <v>1.010425610009237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036853671147499</v>
+        <v>1.041866805351966</v>
       </c>
       <c r="J11">
-        <v>1.054469458994204</v>
+        <v>1.018648441240858</v>
       </c>
       <c r="K11">
-        <v>1.058809088891074</v>
+        <v>1.020085860805567</v>
       </c>
       <c r="L11">
-        <v>1.058594479591104</v>
+        <v>1.020171834490289</v>
       </c>
       <c r="M11">
-        <v>1.068472263221354</v>
+        <v>1.025153556878172</v>
       </c>
       <c r="N11">
-        <v>1.021867004640028</v>
+        <v>1.009377153688232</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047702142988619</v>
+        <v>0.9872054859311801</v>
       </c>
       <c r="D12">
-        <v>1.055049073732651</v>
+        <v>1.003899707743328</v>
       </c>
       <c r="E12">
-        <v>1.054836446176439</v>
+        <v>1.004006050167257</v>
       </c>
       <c r="F12">
-        <v>1.064723387200996</v>
+        <v>1.008960588599101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036809014726765</v>
+        <v>1.041508059951227</v>
       </c>
       <c r="J12">
-        <v>1.05426428984406</v>
+        <v>1.017561379666323</v>
       </c>
       <c r="K12">
-        <v>1.058591011821798</v>
+        <v>1.018952574941933</v>
       </c>
       <c r="L12">
-        <v>1.058379151729898</v>
+        <v>1.019056900933507</v>
       </c>
       <c r="M12">
-        <v>1.06823076412355</v>
+        <v>1.023918108080236</v>
       </c>
       <c r="N12">
-        <v>1.021797136922967</v>
+        <v>1.009001960303942</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047764560208206</v>
+        <v>0.987549041837269</v>
       </c>
       <c r="D13">
-        <v>1.05510549868861</v>
+        <v>1.004192846527442</v>
       </c>
       <c r="E13">
-        <v>1.054892281132478</v>
+        <v>1.004295151644559</v>
       </c>
       <c r="F13">
-        <v>1.064784749609501</v>
+        <v>1.009275705722549</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036818606865072</v>
+        <v>1.041585336460455</v>
       </c>
       <c r="J13">
-        <v>1.054308304443782</v>
+        <v>1.017795271994679</v>
       </c>
       <c r="K13">
-        <v>1.058637793027022</v>
+        <v>1.019196391117832</v>
       </c>
       <c r="L13">
-        <v>1.058425342791935</v>
+        <v>1.019296764333949</v>
       </c>
       <c r="M13">
-        <v>1.068282567363408</v>
+        <v>1.024183885056328</v>
       </c>
       <c r="N13">
-        <v>1.02181212662972</v>
+        <v>1.009082689364623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047969071855931</v>
+        <v>0.9886707615876086</v>
       </c>
       <c r="D14">
-        <v>1.055290387083738</v>
+        <v>1.005150225124532</v>
       </c>
       <c r="E14">
-        <v>1.055075238081398</v>
+        <v>1.005239369282216</v>
       </c>
       <c r="F14">
-        <v>1.064985823252949</v>
+        <v>1.010304898976134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036849985777351</v>
+        <v>1.041837297078697</v>
       </c>
       <c r="J14">
-        <v>1.054452501955608</v>
+        <v>1.018558904777836</v>
       </c>
       <c r="K14">
-        <v>1.058791063893979</v>
+        <v>1.019992507260221</v>
       </c>
       <c r="L14">
-        <v>1.058576681651179</v>
+        <v>1.020079990706792</v>
       </c>
       <c r="M14">
-        <v>1.068452301218831</v>
+        <v>1.025051779357658</v>
       </c>
       <c r="N14">
-        <v>1.021861230634737</v>
+        <v>1.00934625176011</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04809507595928</v>
+        <v>0.9893588826204233</v>
       </c>
       <c r="D15">
-        <v>1.055404308938742</v>
+        <v>1.00573773705692</v>
       </c>
       <c r="E15">
-        <v>1.055187971233714</v>
+        <v>1.005818823569131</v>
       </c>
       <c r="F15">
-        <v>1.065109722977766</v>
+        <v>1.010936507701228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036869280753967</v>
+        <v>1.041991594326621</v>
       </c>
       <c r="J15">
-        <v>1.054541331819157</v>
+        <v>1.019027330559674</v>
       </c>
       <c r="K15">
-        <v>1.058885490554951</v>
+        <v>1.020480922409875</v>
       </c>
       <c r="L15">
-        <v>1.058669919193355</v>
+        <v>1.02056051094358</v>
       </c>
       <c r="M15">
-        <v>1.068556877332852</v>
+        <v>1.02558428461677</v>
       </c>
       <c r="N15">
-        <v>1.021891476906519</v>
+        <v>1.00950791838254</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048828440733187</v>
+        <v>0.9933192704160632</v>
       </c>
       <c r="D16">
-        <v>1.056067475703037</v>
+        <v>1.009122134841462</v>
       </c>
       <c r="E16">
-        <v>1.055844239431714</v>
+        <v>1.009157086275961</v>
       </c>
       <c r="F16">
-        <v>1.065831050928857</v>
+        <v>1.014575338097181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036980996395453</v>
+        <v>1.042875510955178</v>
       </c>
       <c r="J16">
-        <v>1.055058131758858</v>
+        <v>1.021722837294785</v>
       </c>
       <c r="K16">
-        <v>1.059434964049122</v>
+        <v>1.023292416966522</v>
       </c>
       <c r="L16">
-        <v>1.059212490641982</v>
+        <v>1.023326753883121</v>
       </c>
       <c r="M16">
-        <v>1.069165517644122</v>
+        <v>1.028650404324704</v>
       </c>
       <c r="N16">
-        <v>1.022067396250465</v>
+        <v>1.010438094641682</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049288432751671</v>
+        <v>0.995765285472283</v>
       </c>
       <c r="D17">
-        <v>1.056483544588573</v>
+        <v>1.011215008699475</v>
       </c>
       <c r="E17">
-        <v>1.056255998779228</v>
+        <v>1.011221674034731</v>
       </c>
       <c r="F17">
-        <v>1.066283678358002</v>
+        <v>1.016825919847354</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037050553524411</v>
+        <v>1.0434177634319</v>
       </c>
       <c r="J17">
-        <v>1.055382106226251</v>
+        <v>1.023387175837237</v>
       </c>
       <c r="K17">
-        <v>1.059779519883125</v>
+        <v>1.025029214684294</v>
       </c>
       <c r="L17">
-        <v>1.059552733839169</v>
+        <v>1.025035766476862</v>
       </c>
       <c r="M17">
-        <v>1.069547268879121</v>
+        <v>1.030545224268082</v>
       </c>
       <c r="N17">
-        <v>1.022177634039672</v>
+        <v>1.011012319461977</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049556728589396</v>
+        <v>0.9971786857936316</v>
       </c>
       <c r="D18">
-        <v>1.05672626026841</v>
+        <v>1.012425258275333</v>
       </c>
       <c r="E18">
-        <v>1.056496207160327</v>
+        <v>1.012415652754568</v>
       </c>
       <c r="F18">
-        <v>1.066547745295311</v>
+        <v>1.018127504136053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037090937940926</v>
+        <v>1.043729753362648</v>
       </c>
       <c r="J18">
-        <v>1.055571003020064</v>
+        <v>1.024348704336182</v>
       </c>
       <c r="K18">
-        <v>1.059980452469854</v>
+        <v>1.0260329077619</v>
       </c>
       <c r="L18">
-        <v>1.059751156995318</v>
+        <v>1.026023462843683</v>
       </c>
       <c r="M18">
-        <v>1.069769926348097</v>
+        <v>1.031640501261945</v>
       </c>
       <c r="N18">
-        <v>1.02224189364235</v>
+        <v>1.011344019285177</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049648208933189</v>
+        <v>0.9976584016190425</v>
       </c>
       <c r="D19">
-        <v>1.056809025108241</v>
+        <v>1.012836174949823</v>
       </c>
       <c r="E19">
-        <v>1.056578118157131</v>
+        <v>1.012821059470979</v>
       </c>
       <c r="F19">
-        <v>1.066637794993078</v>
+        <v>1.01856945526483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037104676252372</v>
+        <v>1.043835414364127</v>
       </c>
       <c r="J19">
-        <v>1.055635399748071</v>
+        <v>1.024675018061501</v>
       </c>
       <c r="K19">
-        <v>1.060048958355195</v>
+        <v>1.02637358229679</v>
       </c>
       <c r="L19">
-        <v>1.059818808256266</v>
+        <v>1.026358717933105</v>
       </c>
       <c r="M19">
-        <v>1.069845844851251</v>
+        <v>1.032012306039958</v>
       </c>
       <c r="N19">
-        <v>1.022263797685967</v>
+        <v>1.011456580449863</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049239080977897</v>
+        <v>0.9955042389086757</v>
       </c>
       <c r="D20">
-        <v>1.056438901263697</v>
+        <v>1.010991555641195</v>
       </c>
       <c r="E20">
-        <v>1.056211817166554</v>
+        <v>1.011001232066183</v>
       </c>
       <c r="F20">
-        <v>1.066235109826916</v>
+        <v>1.016585614443726</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037043110053517</v>
+        <v>1.04336003154032</v>
       </c>
       <c r="J20">
-        <v>1.055347354287307</v>
+        <v>1.023209571438969</v>
       </c>
       <c r="K20">
-        <v>1.059742556548689</v>
+        <v>1.024843846570022</v>
       </c>
       <c r="L20">
-        <v>1.059516232583088</v>
+        <v>1.024853357595099</v>
       </c>
       <c r="M20">
-        <v>1.069506311786089</v>
+        <v>1.030342963186436</v>
       </c>
       <c r="N20">
-        <v>1.022165810730786</v>
+        <v>1.010951047413497</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047908848749139</v>
+        <v>0.9883410724262101</v>
       </c>
       <c r="D21">
-        <v>1.055235940808273</v>
+        <v>1.004868794886129</v>
       </c>
       <c r="E21">
-        <v>1.055021360292574</v>
+        <v>1.00496180389464</v>
       </c>
       <c r="F21">
-        <v>1.064926609658031</v>
+        <v>1.01000235265229</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036840753512569</v>
+        <v>1.04176329823603</v>
       </c>
       <c r="J21">
-        <v>1.054410042504862</v>
+        <v>1.018334467711061</v>
       </c>
       <c r="K21">
-        <v>1.058745931232203</v>
+        <v>1.01975850984423</v>
       </c>
       <c r="L21">
-        <v>1.058532117656039</v>
+        <v>1.019849779197404</v>
       </c>
       <c r="M21">
-        <v>1.068402319354427</v>
+        <v>1.024796673287232</v>
       </c>
       <c r="N21">
-        <v>1.021846772463971</v>
+        <v>1.009268790391128</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047072380949392</v>
+        <v>0.9837071636083542</v>
       </c>
       <c r="D22">
-        <v>1.05447985491944</v>
+        <v>1.000916991927381</v>
       </c>
       <c r="E22">
-        <v>1.054273193719156</v>
+        <v>1.001064614304235</v>
       </c>
       <c r="F22">
-        <v>1.064104411563677</v>
+        <v>1.005754510581238</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03671183828349</v>
+        <v>1.0407184112396</v>
       </c>
       <c r="J22">
-        <v>1.053820063761327</v>
+        <v>1.015179504320616</v>
       </c>
       <c r="K22">
-        <v>1.058118939317592</v>
+        <v>1.016470304890001</v>
       </c>
       <c r="L22">
-        <v>1.057913046289361</v>
+        <v>1.016615010438329</v>
       </c>
       <c r="M22">
-        <v>1.067708086226026</v>
+        <v>1.021212824998075</v>
       </c>
       <c r="N22">
-        <v>1.02164581700794</v>
+        <v>1.008179776513836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047515818150396</v>
+        <v>0.9861765418796969</v>
       </c>
       <c r="D23">
-        <v>1.054880645650562</v>
+        <v>1.003021995909061</v>
       </c>
       <c r="E23">
-        <v>1.054669780775225</v>
+        <v>1.003140447896503</v>
       </c>
       <c r="F23">
-        <v>1.064540226467072</v>
+        <v>1.008017098454079</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036780338476785</v>
+        <v>1.041276322784257</v>
       </c>
       <c r="J23">
-        <v>1.054132884840133</v>
+        <v>1.01686085059848</v>
       </c>
       <c r="K23">
-        <v>1.058451355273064</v>
+        <v>1.018222393718958</v>
       </c>
       <c r="L23">
-        <v>1.0582412582114</v>
+        <v>1.018338571956126</v>
       </c>
       <c r="M23">
-        <v>1.068076122945945</v>
+        <v>1.02312221895978</v>
       </c>
       <c r="N23">
-        <v>1.021752381793797</v>
+        <v>1.008760161838683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049261380949738</v>
+        <v>0.9956222356664642</v>
       </c>
       <c r="D24">
-        <v>1.056459073568389</v>
+        <v>1.01109255679109</v>
       </c>
       <c r="E24">
-        <v>1.056231780823669</v>
+        <v>1.011100871931569</v>
       </c>
       <c r="F24">
-        <v>1.066257055679021</v>
+        <v>1.016694232456532</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03704647401559</v>
+        <v>1.043386131351629</v>
       </c>
       <c r="J24">
-        <v>1.055363057414932</v>
+        <v>1.023289851745347</v>
       </c>
       <c r="K24">
-        <v>1.059759258814872</v>
+        <v>1.024927635271703</v>
       </c>
       <c r="L24">
-        <v>1.059532726037244</v>
+        <v>1.02493580849988</v>
       </c>
       <c r="M24">
-        <v>1.069524818568907</v>
+        <v>1.030434386903789</v>
       </c>
       <c r="N24">
-        <v>1.022171153299385</v>
+        <v>1.010978743591641</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051286633217119</v>
+        <v>1.006065075239413</v>
       </c>
       <c r="D25">
-        <v>1.058291920245181</v>
+        <v>1.020049697019317</v>
       </c>
       <c r="E25">
-        <v>1.058045814054761</v>
+        <v>1.019939080523419</v>
       </c>
       <c r="F25">
-        <v>1.068251579883076</v>
+        <v>1.026329876436951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037347970785646</v>
+        <v>1.045666808470379</v>
       </c>
       <c r="J25">
-        <v>1.056787780864965</v>
+        <v>1.030390035308136</v>
       </c>
       <c r="K25">
-        <v>1.061275401940451</v>
+        <v>1.03234454063729</v>
       </c>
       <c r="L25">
-        <v>1.061030033952938</v>
+        <v>1.032235556847928</v>
       </c>
       <c r="M25">
-        <v>1.071205497922539</v>
+        <v>1.038532756189601</v>
       </c>
       <c r="N25">
-        <v>1.022655536444017</v>
+        <v>1.013427230940369</v>
       </c>
     </row>
   </sheetData>
